--- a/phylo_analysis/DataS4_testudinetraitdata.xlsx
+++ b/phylo_analysis/DataS4_testudinetraitdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantingeorgeglen/Documents/University/UFL/RESEARCH/Projects_Writing/PhDChapters/ch2.senescenceCTC/submission/Nature/supplementaryData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086966AA-4C04-054C-B977-9FA21729143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D1DC63-E0F3-A745-83AF-BD5AA770AFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="38280" windowHeight="19900" xr2:uid="{8D378391-6132-A245-A1D6-89E36F870A51}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{8D378391-6132-A245-A1D6-89E36F870A51}"/>
   </bookViews>
   <sheets>
     <sheet name="testudine_female_data" sheetId="15" r:id="rId1"/>
@@ -3154,7 +3154,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3282,7 +3282,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="7">
-        <f t="shared" ref="I2:I14" si="0">H2*L2</f>
+        <f>H2*L2</f>
         <v>2.1816</v>
       </c>
       <c r="J2" s="7">
@@ -3358,7 +3358,7 @@
         <v>90</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" si="0"/>
+        <f>H3*L3</f>
         <v>1.1736</v>
       </c>
       <c r="J3" s="7">
@@ -3437,7 +3437,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" si="0"/>
+        <f>H4*L4</f>
         <v>0.25555499999999998</v>
       </c>
       <c r="J4" s="7"/>
@@ -3512,7 +3512,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I5:I66" si="0">H5*L5</f>
         <v>1.6896</v>
       </c>
       <c r="J5" s="7">
@@ -3867,7 +3867,7 @@
         <v>392.62790000000001</v>
       </c>
       <c r="I10" s="7">
-        <f>H10*L10</f>
+        <f t="shared" si="0"/>
         <v>18.41424851</v>
       </c>
       <c r="J10" s="7">
@@ -4209,8 +4209,9 @@
         <f>((33+26)/2)</f>
         <v>29.5</v>
       </c>
-      <c r="I15" s="8">
-        <v>0.32400000000000001</v>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.3591625</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8">
@@ -4271,7 +4272,7 @@
         <v>3.0838383839999999</v>
       </c>
       <c r="I16" s="7">
-        <f>H16*L16</f>
+        <f t="shared" si="0"/>
         <v>8.5576515155999996E-2</v>
       </c>
       <c r="J16" s="7">
@@ -4350,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="7">
-        <f>H17*L17</f>
+        <f t="shared" si="0"/>
         <v>6.3539999999999999E-2</v>
       </c>
       <c r="J17" s="7"/>
@@ -4424,8 +4425,9 @@
       <c r="H18" s="9">
         <v>12</v>
       </c>
-      <c r="I18" s="8">
-        <v>6.4000000000000001E-2</v>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3539999999999999E-2</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8">
@@ -4485,8 +4487,9 @@
       <c r="H19" s="9">
         <v>12</v>
       </c>
-      <c r="I19" s="8">
-        <v>6.4000000000000001E-2</v>
+      <c r="I19" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3539999999999999E-2</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8">
@@ -4548,7 +4551,7 @@
         <v>5.1479999999999997</v>
       </c>
       <c r="I20" s="7">
-        <f>H20*L20</f>
+        <f t="shared" si="0"/>
         <v>3.3976799999999995E-2</v>
       </c>
       <c r="J20" s="7"/>
@@ -4623,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <f>H21*L21</f>
+        <f t="shared" si="0"/>
         <v>1.95E-2</v>
       </c>
       <c r="J21" s="7">
@@ -4699,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <f>H22*L22</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="J22" s="7">
@@ -4777,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <f>H23*L23</f>
+        <f t="shared" si="0"/>
         <v>9.5560000000000006E-2</v>
       </c>
       <c r="J23" s="7">
@@ -4831,8 +4834,9 @@
         <f>9.6*1.5</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="I24" s="8">
-        <v>0.17599999999999999</v>
+      <c r="I24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.17568</v>
       </c>
       <c r="J24" s="8">
         <v>6.1000000000000004E-3</v>
@@ -4895,8 +4899,9 @@
         <f>AVERAGE(7,5,5.8,12)*1.5</f>
         <v>11.175000000000001</v>
       </c>
-      <c r="I25" s="8">
-        <v>0.151</v>
+      <c r="I25" s="7">
+        <f t="shared" si="0"/>
+        <v>9.0517500000000001E-2</v>
       </c>
       <c r="J25" s="8">
         <f>3.6*0.001</f>
@@ -4960,8 +4965,9 @@
         <f>AVERAGE(7,5,5.8,12)*1.5</f>
         <v>11.175000000000001</v>
       </c>
-      <c r="I26" s="8">
-        <v>0.151</v>
+      <c r="I26" s="7">
+        <f t="shared" si="0"/>
+        <v>9.0517500000000001E-2</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ref="J26:J27" si="1">3.6*0.001</f>
@@ -5025,8 +5031,9 @@
         <f>AVERAGE(7,5,5.8,12)*1.5</f>
         <v>11.175000000000001</v>
       </c>
-      <c r="I27" s="8">
-        <v>0.151</v>
+      <c r="I27" s="7">
+        <f t="shared" si="0"/>
+        <v>9.0517500000000001E-2</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" si="1"/>
@@ -5091,7 +5098,7 @@
         <v>11.690024770381383</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" ref="I28:I36" si="2">H28*L28</f>
+        <f t="shared" si="0"/>
         <v>0.32732069357067872</v>
       </c>
       <c r="J28" s="7">
@@ -5170,7 +5177,7 @@
         <v>31</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.35649999999999998</v>
       </c>
       <c r="J29" s="7"/>
@@ -5245,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8.199999999999999E-3</v>
       </c>
       <c r="J30" s="7">
@@ -5321,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.16188</v>
       </c>
       <c r="J31" s="7"/>
@@ -5396,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.392E-2</v>
       </c>
       <c r="J32" s="7"/>
@@ -5472,7 +5479,7 @@
         <v>11.784194530000001</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.42364179335350005</v>
       </c>
       <c r="J33" s="7">
@@ -5551,7 +5558,7 @@
         <v>2.8</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.491999999999999E-2</v>
       </c>
       <c r="J34" s="7">
@@ -5606,7 +5613,7 @@
         <v>6.6</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.27027000000000001</v>
       </c>
       <c r="J35" s="7">
@@ -5685,7 +5692,7 @@
         <v>11.219999999999999</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.16257779999999999</v>
       </c>
       <c r="J36" s="7">
@@ -5764,8 +5771,9 @@
         <f>1.2*4.6</f>
         <v>5.52</v>
       </c>
-      <c r="I37" s="8">
-        <v>0.122</v>
+      <c r="I37" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6193599999999996E-2</v>
       </c>
       <c r="J37" s="8">
         <v>2.8750000000000001E-2</v>
@@ -5827,7 +5835,10 @@
       <c r="H38" s="9">
         <v>20.7723367</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="7">
+        <f t="shared" si="0"/>
+        <v>0.21395506801</v>
+      </c>
       <c r="J38" s="8">
         <v>5.4099999999999999E-3</v>
       </c>
@@ -5890,7 +5901,7 @@
         <v>25.874999999999996</v>
       </c>
       <c r="I39" s="7">
-        <f>H39*L39</f>
+        <f t="shared" si="0"/>
         <v>0.25253999999999993</v>
       </c>
       <c r="J39" s="7"/>
@@ -5967,7 +5978,7 @@
         <v>6.3000000000000007</v>
       </c>
       <c r="I40" s="7">
-        <f>H40*L40</f>
+        <f t="shared" si="0"/>
         <v>0.30743999999999999</v>
       </c>
       <c r="J40" s="7">
@@ -6044,8 +6055,9 @@
       <c r="H41" s="8">
         <v>2</v>
       </c>
-      <c r="I41" s="8">
-        <v>8.1000000000000003E-2</v>
+      <c r="I41" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J41" s="8">
         <f>7.8*0.001</f>
@@ -6110,7 +6122,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="7">
-        <f>H42*L42</f>
+        <f t="shared" si="0"/>
         <v>0.42799999999999999</v>
       </c>
       <c r="J42" s="7">
@@ -6189,7 +6201,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="7">
-        <f>H43*L43</f>
+        <f t="shared" si="0"/>
         <v>0.15699999999999997</v>
       </c>
       <c r="J43" s="7"/>
@@ -6262,7 +6274,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I44" s="7">
-        <f>H44*L44</f>
+        <f t="shared" si="0"/>
         <v>0.33193600000000001</v>
       </c>
       <c r="J44" s="7"/>
@@ -6337,7 +6349,10 @@
         <f>3*1.5</f>
         <v>4.5</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12375</v>
+      </c>
       <c r="J45" s="7">
         <f>((15+22)/2)*0.1</f>
         <v>1.85</v>
@@ -6412,8 +6427,9 @@
       <c r="H46" s="8">
         <v>4.68</v>
       </c>
-      <c r="I46" s="8">
-        <v>2.3E-2</v>
+      <c r="I46" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2651199999999996E-2</v>
       </c>
       <c r="J46" s="8">
         <v>2.5100000000000001E-3</v>
@@ -6477,7 +6493,7 @@
         <v>8.1359999999999992</v>
       </c>
       <c r="I47" s="7">
-        <f>H47*L47</f>
+        <f t="shared" si="0"/>
         <v>7.2410399999999972E-2</v>
       </c>
       <c r="J47" s="7">
@@ -6556,7 +6572,7 @@
         <v>24.75</v>
       </c>
       <c r="I48" s="7">
-        <f>H48*L48</f>
+        <f t="shared" si="0"/>
         <v>0.80635499999999993</v>
       </c>
       <c r="J48" s="7"/>
@@ -6607,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="7">
-        <f>H49*L49</f>
+        <f t="shared" si="0"/>
         <v>1.8880000000000001E-2</v>
       </c>
       <c r="J49" s="7">
@@ -6686,7 +6702,7 @@
         <v>18.199999997399999</v>
       </c>
       <c r="I50" s="7">
-        <f>H50*L50</f>
+        <f t="shared" si="0"/>
         <v>0.23659999996620001</v>
       </c>
       <c r="J50" s="7">
@@ -6763,7 +6779,8 @@
       <c r="H51" s="8">
         <v>5</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
+        <f t="shared" si="0"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="J51" s="8"/>
@@ -6826,7 +6843,7 @@
         <v>50.75</v>
       </c>
       <c r="I52" s="7">
-        <f>H52*L52</f>
+        <f t="shared" si="0"/>
         <v>0.27405000000000002</v>
       </c>
       <c r="J52" s="7"/>
@@ -6898,7 +6915,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="7">
-        <f>H53*L53</f>
+        <f t="shared" si="0"/>
         <v>0.19808000000000001</v>
       </c>
       <c r="J53" s="7"/>
@@ -6973,7 +6990,7 @@
         <v>12</v>
       </c>
       <c r="I54" s="7">
-        <f>H54*L54</f>
+        <f t="shared" si="0"/>
         <v>0.15479999999999999</v>
       </c>
       <c r="J54" s="7"/>
@@ -7048,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="7">
-        <f>H55*L55</f>
+        <f t="shared" si="0"/>
         <v>2.7E-2</v>
       </c>
       <c r="J55" s="7"/>
@@ -7123,7 +7140,7 @@
         <v>24</v>
       </c>
       <c r="I56" s="7">
-        <f>H56*L56</f>
+        <f t="shared" si="0"/>
         <v>0.5855999999999999</v>
       </c>
       <c r="J56" s="7">
@@ -7200,8 +7217,9 @@
       <c r="H57" s="9">
         <v>10.08</v>
       </c>
-      <c r="I57" s="8">
-        <v>3.2050000000000001</v>
+      <c r="I57" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1219176</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -7260,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="7">
-        <f>H58*L58</f>
+        <f t="shared" si="0"/>
         <v>1.3460000000000001E-2</v>
       </c>
       <c r="J58" s="7"/>
@@ -7333,7 +7351,7 @@
         <v>3.4971428580000001</v>
       </c>
       <c r="I59" s="7">
-        <f>H59*L59</f>
+        <f t="shared" si="0"/>
         <v>6.2074285729500009E-2</v>
       </c>
       <c r="J59" s="7"/>
@@ -7406,7 +7424,7 @@
         <v>4.55</v>
       </c>
       <c r="I60" s="7">
-        <f>H60*L60</f>
+        <f t="shared" si="0"/>
         <v>0.12967500000000001</v>
       </c>
       <c r="J60" s="7">
@@ -7482,7 +7500,7 @@
         <v>9.5</v>
       </c>
       <c r="I61" s="7">
-        <f>H61*L61</f>
+        <f t="shared" si="0"/>
         <v>3.1824999999999999E-2</v>
       </c>
       <c r="J61" s="7"/>
@@ -7556,8 +7574,9 @@
       <c r="H62" s="8">
         <v>9.5</v>
       </c>
-      <c r="I62" s="8">
-        <v>3.5000000000000003E-2</v>
+      <c r="I62" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1824999999999999E-2</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8">
@@ -7618,7 +7637,7 @@
         <v>8.67</v>
       </c>
       <c r="I63" s="7">
-        <f>H63*L63</f>
+        <f t="shared" si="0"/>
         <v>0.51655859999999998</v>
       </c>
       <c r="J63" s="7"/>
@@ -7692,8 +7711,9 @@
       <c r="H64" s="8">
         <v>7.2397499999999999</v>
       </c>
-      <c r="I64" s="8">
-        <v>6.2E-2</v>
+      <c r="I64" s="7">
+        <f t="shared" si="0"/>
+        <v>7.4533226250000001E-2</v>
       </c>
       <c r="J64" s="8">
         <v>5.9500000000000004E-3</v>
@@ -7754,7 +7774,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="7">
-        <f>H65*L65</f>
+        <f t="shared" si="0"/>
         <v>0.21920000000000001</v>
       </c>
       <c r="J65" s="7">
@@ -7832,7 +7852,7 @@
         <v>7.3643999999999998</v>
       </c>
       <c r="I66" s="7">
-        <f>H66*L66</f>
+        <f t="shared" si="0"/>
         <v>0.10604736000000001</v>
       </c>
       <c r="J66" s="7">
@@ -7909,8 +7929,9 @@
       <c r="H67" s="8">
         <v>7.3643999999999998</v>
       </c>
-      <c r="I67" s="8">
-        <v>0.106</v>
+      <c r="I67" s="7">
+        <f t="shared" ref="I67:I73" si="2">H67*L67</f>
+        <v>0.10604735999999999</v>
       </c>
       <c r="J67" s="8">
         <v>7.4999999999999997E-3</v>
@@ -7973,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="I68" s="7">
-        <f>H68*L68</f>
+        <f t="shared" si="2"/>
         <v>0.21300000000000002</v>
       </c>
       <c r="J68" s="7"/>
@@ -8049,7 +8070,7 @@
         <v>4.8</v>
       </c>
       <c r="I69" s="7">
-        <f>H69*L69</f>
+        <f t="shared" si="2"/>
         <v>5.3759999999999995E-2</v>
       </c>
       <c r="J69" s="7">
@@ -8204,7 +8225,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="I71" s="7">
-        <f>H71*L71</f>
+        <f t="shared" si="2"/>
         <v>0.22193599999999999</v>
       </c>
       <c r="J71" s="7"/>
@@ -8277,7 +8298,7 @@
         <v>26.25</v>
       </c>
       <c r="I72" s="7">
-        <f>H72*L72</f>
+        <f t="shared" si="2"/>
         <v>0.291375</v>
       </c>
       <c r="J72" s="7"/>
@@ -8352,8 +8373,9 @@
         <f>10.5*2.5</f>
         <v>26.25</v>
       </c>
-      <c r="I73" s="8">
-        <v>0.186</v>
+      <c r="I73" s="7">
+        <f t="shared" si="2"/>
+        <v>0.291375</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8">
@@ -8414,8 +8436,9 @@
         <f>10.5*2.5</f>
         <v>26.25</v>
       </c>
-      <c r="I74" s="8">
-        <v>0.186</v>
+      <c r="I74" s="7">
+        <f>H74*L74</f>
+        <v>0.291375</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8">
@@ -8466,7 +8489,7 @@
   <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
